--- a/giovinazzo-dati-covid-2020-11-12.xlsx
+++ b/giovinazzo-dati-covid-2020-11-12.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michelesollecito/Desktop/file_Thomas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denic\OneDrive\Documents\Repositories\dati\giovinazzo-dati-covid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677B2A63-AC46-E34A-814A-F6C7900F6A6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F23F3BD-F56D-4E2A-BC9F-400ED40747F6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="460" windowWidth="35300" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="attualmente_positivi" sheetId="1" r:id="rId1"/>
     <sheet name="totale_contagiati" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
@@ -228,6 +231,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400"/>
+              <a:t>Attualmente positivi</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -241,7 +269,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -293,7 +321,7 @@
             <c:numRef>
               <c:f>attualmente_positivi!$A$2:$A$124</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="123"/>
                 <c:pt idx="0">
                   <c:v>43922</c:v>
@@ -1048,7 +1076,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C51F-4CC7-AB63-49DEE4877AF0}"/>
+              <c16:uniqueId val="{00000000-1EF6-4739-92F1-024D4324F2EC}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1071,7 +1099,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1093,7 +1121,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1151,7 +1179,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1178,6 +1206,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1237,6 +1296,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="2400"/>
+              <a:t>Totale contagiati ed incremento giornaliero</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1250,7 +1334,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1302,7 +1386,7 @@
             <c:numRef>
               <c:f>totale_contagiati!$A$2:$A$108</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="107"/>
                 <c:pt idx="1">
                   <c:v>43922</c:v>
@@ -1955,7 +2039,694 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-84CA-4020-AF68-A0698DD2AC19}"/>
+              <c16:uniqueId val="{00000000-9B4C-4AB0-ABC0-BFF0326551F0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>totale_contagiati!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>incremento giornaliero</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>totale_contagiati!$A$2:$A$108</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="107"/>
+                <c:pt idx="1">
+                  <c:v>43922</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43923</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43925</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43928</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43930</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43934</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43935</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43936</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43937</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43938</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43939</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43940</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43942</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43943</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>43945</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43946</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>43947</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43950</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43951</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43952</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43953</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43955</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43956</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43958</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>43959</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>43960</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>43961</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43962</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>43963</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>43964</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43967</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43968</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43969</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>43970</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>43971</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43972</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43973</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43980</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44029</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44053</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44055</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44056</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>44057</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44058</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44059</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44060</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>44061</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44063</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>44064</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44065</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44066</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44067</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44068</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44069</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44070</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44072</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44074</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44076</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44077</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44078</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44079</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44080</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>44082</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44083</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>44084</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>44086</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>44087</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>44088</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>44090</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>44094</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>44095</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44098</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>44102</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>44103</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>44104</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>44106</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44107</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44109</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44111</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44112</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44114</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>44115</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44118</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44119</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>44122</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>44125</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>44126</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>44128</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>44129</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>44130</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>44131</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>44133</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>44135</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>44136</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>44137</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>44138</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44139</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>44140</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>44141</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44142</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>44144</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>44147</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>totale_contagiati!$C$2:$C$108</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="107"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9B4C-4AB0-ABC0-BFF0326551F0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2000,7 +2771,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2059,7 +2830,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2086,6 +2857,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3253,16 +4055,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1216</xdr:colOff>
+      <xdr:colOff>22840</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>190495</xdr:rowOff>
+      <xdr:rowOff>137293</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B96767DA-281A-4D87-A35B-DD61881F4062}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28A71F6C-B7A4-473D-84AE-4B30125B920F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3302,10 +4104,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="3" name="Grafico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637EDACA-5A67-46C4-B0C9-04A16872D4A8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{222D06E1-DBBC-4F4E-B028-26A6A5F29345}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3326,6 +4128,2205 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="attualmente_positivi"/>
+      <sheetName val="totale_contagiati"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>n° attualmente positivi</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2">
+            <v>43922</v>
+          </cell>
+          <cell r="B2">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>43923</v>
+          </cell>
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>43925</v>
+          </cell>
+          <cell r="B4">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>43927</v>
+          </cell>
+          <cell r="B5">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>43928</v>
+          </cell>
+          <cell r="B6">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>43929</v>
+          </cell>
+          <cell r="B7">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>43930</v>
+          </cell>
+          <cell r="B8">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>43931</v>
+          </cell>
+          <cell r="B9">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>43932</v>
+          </cell>
+          <cell r="B10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>43934</v>
+          </cell>
+          <cell r="B11">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>43935</v>
+          </cell>
+          <cell r="B12">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>43936</v>
+          </cell>
+          <cell r="B13">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>43937</v>
+          </cell>
+          <cell r="B14">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>43938</v>
+          </cell>
+          <cell r="B15">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>43939</v>
+          </cell>
+          <cell r="B16">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>43940</v>
+          </cell>
+          <cell r="B17">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>43941</v>
+          </cell>
+          <cell r="B18">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>43942</v>
+          </cell>
+          <cell r="B19">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>43943</v>
+          </cell>
+          <cell r="B20">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>43945</v>
+          </cell>
+          <cell r="B21">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>43946</v>
+          </cell>
+          <cell r="B22">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>43947</v>
+          </cell>
+          <cell r="B23">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>43949</v>
+          </cell>
+          <cell r="B24">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>43950</v>
+          </cell>
+          <cell r="B25">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>43951</v>
+          </cell>
+          <cell r="B26">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>43952</v>
+          </cell>
+          <cell r="B27">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>43953</v>
+          </cell>
+          <cell r="B28">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>43955</v>
+          </cell>
+          <cell r="B29">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>43956</v>
+          </cell>
+          <cell r="B30">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>43958</v>
+          </cell>
+          <cell r="B31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>43959</v>
+          </cell>
+          <cell r="B32">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>43960</v>
+          </cell>
+          <cell r="B33">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>43961</v>
+          </cell>
+          <cell r="B34">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>43962</v>
+          </cell>
+          <cell r="B35">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>43963</v>
+          </cell>
+          <cell r="B36">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>43964</v>
+          </cell>
+          <cell r="B37">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>43967</v>
+          </cell>
+          <cell r="B38">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>43968</v>
+          </cell>
+          <cell r="B39">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>43969</v>
+          </cell>
+          <cell r="B40">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>43970</v>
+          </cell>
+          <cell r="B41">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>43971</v>
+          </cell>
+          <cell r="B42">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>43972</v>
+          </cell>
+          <cell r="B43">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43973</v>
+          </cell>
+          <cell r="B44">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>43974</v>
+          </cell>
+          <cell r="B45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>43975</v>
+          </cell>
+          <cell r="B46">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>43977</v>
+          </cell>
+          <cell r="B47">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>43978</v>
+          </cell>
+          <cell r="B48">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>43979</v>
+          </cell>
+          <cell r="B49">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>43980</v>
+          </cell>
+          <cell r="B50">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>43981</v>
+          </cell>
+          <cell r="B51">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>43982</v>
+          </cell>
+          <cell r="B52">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>43983</v>
+          </cell>
+          <cell r="B53">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>43984</v>
+          </cell>
+          <cell r="B54">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>43985</v>
+          </cell>
+          <cell r="B55">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>43987</v>
+          </cell>
+          <cell r="B56">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>43988</v>
+          </cell>
+          <cell r="B57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>44029</v>
+          </cell>
+          <cell r="B58">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>44030</v>
+          </cell>
+          <cell r="B59">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>44033</v>
+          </cell>
+          <cell r="B60">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>44036</v>
+          </cell>
+          <cell r="B61">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>44038</v>
+          </cell>
+          <cell r="B62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>44053</v>
+          </cell>
+          <cell r="B63">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>44055</v>
+          </cell>
+          <cell r="B64">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>44056</v>
+          </cell>
+          <cell r="B65">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>44057</v>
+          </cell>
+          <cell r="B66">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>44058</v>
+          </cell>
+          <cell r="B67">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>44059</v>
+          </cell>
+          <cell r="B68">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>44060</v>
+          </cell>
+          <cell r="B69">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>44061</v>
+          </cell>
+          <cell r="B70">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>44063</v>
+          </cell>
+          <cell r="B71">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>44064</v>
+          </cell>
+          <cell r="B72">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>44065</v>
+          </cell>
+          <cell r="B73">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>44066</v>
+          </cell>
+          <cell r="B74">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>44067</v>
+          </cell>
+          <cell r="B75">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>44068</v>
+          </cell>
+          <cell r="B76">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>44069</v>
+          </cell>
+          <cell r="B77">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>44070</v>
+          </cell>
+          <cell r="B78">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>44072</v>
+          </cell>
+          <cell r="B79">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>44074</v>
+          </cell>
+          <cell r="B80">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>44076</v>
+          </cell>
+          <cell r="B81">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>44079</v>
+          </cell>
+          <cell r="B82">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>44080</v>
+          </cell>
+          <cell r="B83">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>44082</v>
+          </cell>
+          <cell r="B84">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>44083</v>
+          </cell>
+          <cell r="B85">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>44084</v>
+          </cell>
+          <cell r="B86">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>44086</v>
+          </cell>
+          <cell r="B87">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>44087</v>
+          </cell>
+          <cell r="B88">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>44088</v>
+          </cell>
+          <cell r="B89">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>44090</v>
+          </cell>
+          <cell r="B90">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>44094</v>
+          </cell>
+          <cell r="B91">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>44095</v>
+          </cell>
+          <cell r="B92">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>44098</v>
+          </cell>
+          <cell r="B93">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>44100</v>
+          </cell>
+          <cell r="B94">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>44102</v>
+          </cell>
+          <cell r="B95">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>44103</v>
+          </cell>
+          <cell r="B96">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>44104</v>
+          </cell>
+          <cell r="B97">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>44106</v>
+          </cell>
+          <cell r="B98">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>44107</v>
+          </cell>
+          <cell r="B99">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>44109</v>
+          </cell>
+          <cell r="B100">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>44111</v>
+          </cell>
+          <cell r="B101">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>44112</v>
+          </cell>
+          <cell r="B102">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>44114</v>
+          </cell>
+          <cell r="B103">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>44115</v>
+          </cell>
+          <cell r="B104">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>44118</v>
+          </cell>
+          <cell r="B105">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>44119</v>
+          </cell>
+          <cell r="B106">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>44122</v>
+          </cell>
+          <cell r="B107">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>44125</v>
+          </cell>
+          <cell r="B108">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>44126</v>
+          </cell>
+          <cell r="B109">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="A110">
+            <v>44128</v>
+          </cell>
+          <cell r="B110">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="A111">
+            <v>44129</v>
+          </cell>
+          <cell r="B111">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="A112">
+            <v>44130</v>
+          </cell>
+          <cell r="B112">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="A113">
+            <v>44131</v>
+          </cell>
+          <cell r="B113">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="A114">
+            <v>44133</v>
+          </cell>
+          <cell r="B114">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="A115">
+            <v>44135</v>
+          </cell>
+          <cell r="B115">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="A116">
+            <v>44136</v>
+          </cell>
+          <cell r="B116">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="A117">
+            <v>44137</v>
+          </cell>
+          <cell r="B117">
+            <v>46</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="A118">
+            <v>44138</v>
+          </cell>
+          <cell r="B118">
+            <v>50</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="A119">
+            <v>44139</v>
+          </cell>
+          <cell r="B119">
+            <v>49</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="A120">
+            <v>44140</v>
+          </cell>
+          <cell r="B120">
+            <v>54</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="A121">
+            <v>44141</v>
+          </cell>
+          <cell r="B121">
+            <v>62</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="A122">
+            <v>44142</v>
+          </cell>
+          <cell r="B122">
+            <v>63</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="A123">
+            <v>44144</v>
+          </cell>
+          <cell r="B123">
+            <v>81</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="A124">
+            <v>44147</v>
+          </cell>
+          <cell r="B124">
+            <v>100</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="A125">
+            <v>44149</v>
+          </cell>
+          <cell r="B125">
+            <v>106</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1">
+        <row r="1">
+          <cell r="B1" t="str">
+            <v>n°totale contagiati</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>incremento giornaliero</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>43922</v>
+          </cell>
+          <cell r="B3">
+            <v>6</v>
+          </cell>
+          <cell r="C3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4">
+            <v>43923</v>
+          </cell>
+          <cell r="B4">
+            <v>6</v>
+          </cell>
+          <cell r="C4">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5">
+            <v>43925</v>
+          </cell>
+          <cell r="B5">
+            <v>8</v>
+          </cell>
+          <cell r="C5">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6">
+            <v>43928</v>
+          </cell>
+          <cell r="B6">
+            <v>9</v>
+          </cell>
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>43929</v>
+          </cell>
+          <cell r="B7">
+            <v>9</v>
+          </cell>
+          <cell r="C7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8">
+            <v>43930</v>
+          </cell>
+          <cell r="B8">
+            <v>9</v>
+          </cell>
+          <cell r="C8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9">
+            <v>43931</v>
+          </cell>
+          <cell r="B9">
+            <v>9</v>
+          </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10">
+            <v>43934</v>
+          </cell>
+          <cell r="B10">
+            <v>9</v>
+          </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>43935</v>
+          </cell>
+          <cell r="B11">
+            <v>9</v>
+          </cell>
+          <cell r="C11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12">
+            <v>43936</v>
+          </cell>
+          <cell r="B12">
+            <v>9</v>
+          </cell>
+          <cell r="C12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13">
+            <v>43937</v>
+          </cell>
+          <cell r="B13">
+            <v>10</v>
+          </cell>
+          <cell r="C13">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14">
+            <v>43938</v>
+          </cell>
+          <cell r="B14">
+            <v>11</v>
+          </cell>
+          <cell r="C14">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>43939</v>
+          </cell>
+          <cell r="B15">
+            <v>11</v>
+          </cell>
+          <cell r="C15">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16">
+            <v>43940</v>
+          </cell>
+          <cell r="B16">
+            <v>11</v>
+          </cell>
+          <cell r="C16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17">
+            <v>43941</v>
+          </cell>
+          <cell r="B17">
+            <v>11</v>
+          </cell>
+          <cell r="C17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18">
+            <v>43942</v>
+          </cell>
+          <cell r="B18">
+            <v>11</v>
+          </cell>
+          <cell r="C18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19">
+            <v>43943</v>
+          </cell>
+          <cell r="B19">
+            <v>11</v>
+          </cell>
+          <cell r="C19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20">
+            <v>43945</v>
+          </cell>
+          <cell r="B20">
+            <v>12</v>
+          </cell>
+          <cell r="C20">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21">
+            <v>43946</v>
+          </cell>
+          <cell r="B21">
+            <v>12</v>
+          </cell>
+          <cell r="C21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22">
+            <v>43947</v>
+          </cell>
+          <cell r="B22">
+            <v>12</v>
+          </cell>
+          <cell r="C22">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23">
+            <v>43949</v>
+          </cell>
+          <cell r="B23">
+            <v>12</v>
+          </cell>
+          <cell r="C23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24">
+            <v>43950</v>
+          </cell>
+          <cell r="B24">
+            <v>12</v>
+          </cell>
+          <cell r="C24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25">
+            <v>43951</v>
+          </cell>
+          <cell r="B25">
+            <v>12</v>
+          </cell>
+          <cell r="C25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26">
+            <v>43952</v>
+          </cell>
+          <cell r="B26">
+            <v>12</v>
+          </cell>
+          <cell r="C26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27">
+            <v>43953</v>
+          </cell>
+          <cell r="B27">
+            <v>12</v>
+          </cell>
+          <cell r="C27">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>43955</v>
+          </cell>
+          <cell r="B28">
+            <v>12</v>
+          </cell>
+          <cell r="C28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29">
+            <v>43956</v>
+          </cell>
+          <cell r="B29">
+            <v>12</v>
+          </cell>
+          <cell r="C29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30">
+            <v>43958</v>
+          </cell>
+          <cell r="B30">
+            <v>12</v>
+          </cell>
+          <cell r="C30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31">
+            <v>43959</v>
+          </cell>
+          <cell r="B31">
+            <v>13</v>
+          </cell>
+          <cell r="C31">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32">
+            <v>43960</v>
+          </cell>
+          <cell r="B32">
+            <v>13</v>
+          </cell>
+          <cell r="C32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33">
+            <v>43961</v>
+          </cell>
+          <cell r="B33">
+            <v>14</v>
+          </cell>
+          <cell r="C33">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34">
+            <v>43962</v>
+          </cell>
+          <cell r="B34">
+            <v>14</v>
+          </cell>
+          <cell r="C34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35">
+            <v>43963</v>
+          </cell>
+          <cell r="B35">
+            <v>14</v>
+          </cell>
+          <cell r="C35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36">
+            <v>43964</v>
+          </cell>
+          <cell r="B36">
+            <v>14</v>
+          </cell>
+          <cell r="C36">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37">
+            <v>43967</v>
+          </cell>
+          <cell r="B37">
+            <v>14</v>
+          </cell>
+          <cell r="C37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38">
+            <v>43968</v>
+          </cell>
+          <cell r="B38">
+            <v>14</v>
+          </cell>
+          <cell r="C38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39">
+            <v>43969</v>
+          </cell>
+          <cell r="B39">
+            <v>14</v>
+          </cell>
+          <cell r="C39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40">
+            <v>43970</v>
+          </cell>
+          <cell r="B40">
+            <v>14</v>
+          </cell>
+          <cell r="C40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41">
+            <v>43971</v>
+          </cell>
+          <cell r="B41">
+            <v>14</v>
+          </cell>
+          <cell r="C41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42">
+            <v>43972</v>
+          </cell>
+          <cell r="B42">
+            <v>14</v>
+          </cell>
+          <cell r="C42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43">
+            <v>43973</v>
+          </cell>
+          <cell r="B43">
+            <v>14</v>
+          </cell>
+          <cell r="C43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44">
+            <v>43980</v>
+          </cell>
+          <cell r="B44">
+            <v>15</v>
+          </cell>
+          <cell r="C44">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45">
+            <v>44029</v>
+          </cell>
+          <cell r="B45">
+            <v>16</v>
+          </cell>
+          <cell r="C45">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46">
+            <v>44053</v>
+          </cell>
+          <cell r="B46">
+            <v>22</v>
+          </cell>
+          <cell r="C46">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47">
+            <v>44055</v>
+          </cell>
+          <cell r="B47">
+            <v>22</v>
+          </cell>
+          <cell r="C47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48">
+            <v>44056</v>
+          </cell>
+          <cell r="B48">
+            <v>22</v>
+          </cell>
+          <cell r="C48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49">
+            <v>44057</v>
+          </cell>
+          <cell r="B49">
+            <v>22</v>
+          </cell>
+          <cell r="C49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="A50">
+            <v>44058</v>
+          </cell>
+          <cell r="B50">
+            <v>22</v>
+          </cell>
+          <cell r="C50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="A51">
+            <v>44059</v>
+          </cell>
+          <cell r="B51">
+            <v>22</v>
+          </cell>
+          <cell r="C51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="A52">
+            <v>44060</v>
+          </cell>
+          <cell r="B52">
+            <v>22</v>
+          </cell>
+          <cell r="C52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="A53">
+            <v>44061</v>
+          </cell>
+          <cell r="B53">
+            <v>22</v>
+          </cell>
+          <cell r="C53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="A54">
+            <v>44063</v>
+          </cell>
+          <cell r="B54">
+            <v>22</v>
+          </cell>
+          <cell r="C54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="A55">
+            <v>44064</v>
+          </cell>
+          <cell r="B55">
+            <v>22</v>
+          </cell>
+          <cell r="C55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="A56">
+            <v>44065</v>
+          </cell>
+          <cell r="B56">
+            <v>22</v>
+          </cell>
+          <cell r="C56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="A57">
+            <v>44066</v>
+          </cell>
+          <cell r="B57">
+            <v>22</v>
+          </cell>
+          <cell r="C57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="A58">
+            <v>44067</v>
+          </cell>
+          <cell r="B58">
+            <v>22</v>
+          </cell>
+          <cell r="C58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="A59">
+            <v>44068</v>
+          </cell>
+          <cell r="B59">
+            <v>22</v>
+          </cell>
+          <cell r="C59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="A60">
+            <v>44069</v>
+          </cell>
+          <cell r="B60">
+            <v>23</v>
+          </cell>
+          <cell r="C60">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="A61">
+            <v>44070</v>
+          </cell>
+          <cell r="B61">
+            <v>23</v>
+          </cell>
+          <cell r="C61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="A62">
+            <v>44072</v>
+          </cell>
+          <cell r="B62">
+            <v>24</v>
+          </cell>
+          <cell r="C62">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="A63">
+            <v>44074</v>
+          </cell>
+          <cell r="B63">
+            <v>24</v>
+          </cell>
+          <cell r="C63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="A64">
+            <v>44076</v>
+          </cell>
+          <cell r="B64">
+            <v>24</v>
+          </cell>
+          <cell r="C64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="A65">
+            <v>44077</v>
+          </cell>
+          <cell r="B65">
+            <v>24</v>
+          </cell>
+          <cell r="C65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="A66">
+            <v>44078</v>
+          </cell>
+          <cell r="B66">
+            <v>24</v>
+          </cell>
+          <cell r="C66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="A67">
+            <v>44079</v>
+          </cell>
+          <cell r="B67">
+            <v>24</v>
+          </cell>
+          <cell r="C67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="A68">
+            <v>44080</v>
+          </cell>
+          <cell r="B68">
+            <v>24</v>
+          </cell>
+          <cell r="C68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="A69">
+            <v>44082</v>
+          </cell>
+          <cell r="B69">
+            <v>25</v>
+          </cell>
+          <cell r="C69">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="A70">
+            <v>44083</v>
+          </cell>
+          <cell r="B70">
+            <v>25</v>
+          </cell>
+          <cell r="C70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="A71">
+            <v>44084</v>
+          </cell>
+          <cell r="B71">
+            <v>25</v>
+          </cell>
+          <cell r="C71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="A72">
+            <v>44086</v>
+          </cell>
+          <cell r="B72">
+            <v>25</v>
+          </cell>
+          <cell r="C72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="A73">
+            <v>44087</v>
+          </cell>
+          <cell r="B73">
+            <v>25</v>
+          </cell>
+          <cell r="C73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="A74">
+            <v>44088</v>
+          </cell>
+          <cell r="B74">
+            <v>27</v>
+          </cell>
+          <cell r="C74">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="A75">
+            <v>44090</v>
+          </cell>
+          <cell r="B75">
+            <v>28</v>
+          </cell>
+          <cell r="C75">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="A76">
+            <v>44094</v>
+          </cell>
+          <cell r="B76">
+            <v>28</v>
+          </cell>
+          <cell r="C76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="A77">
+            <v>44095</v>
+          </cell>
+          <cell r="B77">
+            <v>28</v>
+          </cell>
+          <cell r="C77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="A78">
+            <v>44098</v>
+          </cell>
+          <cell r="B78">
+            <v>28</v>
+          </cell>
+          <cell r="C78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="A79">
+            <v>44102</v>
+          </cell>
+          <cell r="B79">
+            <v>29</v>
+          </cell>
+          <cell r="C79">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="A80">
+            <v>44103</v>
+          </cell>
+          <cell r="B80">
+            <v>29</v>
+          </cell>
+          <cell r="C80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="A81">
+            <v>44104</v>
+          </cell>
+          <cell r="B81">
+            <v>29</v>
+          </cell>
+          <cell r="C81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="A82">
+            <v>44106</v>
+          </cell>
+          <cell r="B82">
+            <v>29</v>
+          </cell>
+          <cell r="C82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="A83">
+            <v>44107</v>
+          </cell>
+          <cell r="B83">
+            <v>29</v>
+          </cell>
+          <cell r="C83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="A84">
+            <v>44109</v>
+          </cell>
+          <cell r="B84">
+            <v>30</v>
+          </cell>
+          <cell r="C84">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="A85">
+            <v>44111</v>
+          </cell>
+          <cell r="B85">
+            <v>31</v>
+          </cell>
+          <cell r="C85">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="A86">
+            <v>44112</v>
+          </cell>
+          <cell r="B86">
+            <v>32</v>
+          </cell>
+          <cell r="C86">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="A87">
+            <v>44114</v>
+          </cell>
+          <cell r="B87">
+            <v>32</v>
+          </cell>
+          <cell r="C87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="A88">
+            <v>44115</v>
+          </cell>
+          <cell r="B88">
+            <v>33</v>
+          </cell>
+          <cell r="C88">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="A89">
+            <v>44118</v>
+          </cell>
+          <cell r="B89">
+            <v>39</v>
+          </cell>
+          <cell r="C89">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="A90">
+            <v>44119</v>
+          </cell>
+          <cell r="B90">
+            <v>40</v>
+          </cell>
+          <cell r="C90">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="A91">
+            <v>44122</v>
+          </cell>
+          <cell r="B91">
+            <v>43</v>
+          </cell>
+          <cell r="C91">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="A92">
+            <v>44125</v>
+          </cell>
+          <cell r="B92">
+            <v>43</v>
+          </cell>
+          <cell r="C92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="A93">
+            <v>44126</v>
+          </cell>
+          <cell r="B93">
+            <v>49</v>
+          </cell>
+          <cell r="C93">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="A94">
+            <v>44128</v>
+          </cell>
+          <cell r="B94">
+            <v>52</v>
+          </cell>
+          <cell r="C94">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="A95">
+            <v>44129</v>
+          </cell>
+          <cell r="B95">
+            <v>56</v>
+          </cell>
+          <cell r="C95">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="A96">
+            <v>44130</v>
+          </cell>
+          <cell r="B96">
+            <v>58</v>
+          </cell>
+          <cell r="C96">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="A97">
+            <v>44131</v>
+          </cell>
+          <cell r="B97">
+            <v>63</v>
+          </cell>
+          <cell r="C97">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="A98">
+            <v>44133</v>
+          </cell>
+          <cell r="B98">
+            <v>69</v>
+          </cell>
+          <cell r="C98">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="A99">
+            <v>44135</v>
+          </cell>
+          <cell r="B99">
+            <v>75</v>
+          </cell>
+          <cell r="C99">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="A100">
+            <v>44136</v>
+          </cell>
+          <cell r="B100">
+            <v>87</v>
+          </cell>
+          <cell r="C100">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="A101">
+            <v>44137</v>
+          </cell>
+          <cell r="B101">
+            <v>88</v>
+          </cell>
+          <cell r="C101">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="A102">
+            <v>44138</v>
+          </cell>
+          <cell r="B102">
+            <v>90</v>
+          </cell>
+          <cell r="C102">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="A103">
+            <v>44139</v>
+          </cell>
+          <cell r="B103">
+            <v>91</v>
+          </cell>
+          <cell r="C103">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="A104">
+            <v>44140</v>
+          </cell>
+          <cell r="B104">
+            <v>97</v>
+          </cell>
+          <cell r="C104">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="A105">
+            <v>44141</v>
+          </cell>
+          <cell r="B105">
+            <v>105</v>
+          </cell>
+          <cell r="C105">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="A106">
+            <v>44142</v>
+          </cell>
+          <cell r="B106">
+            <v>107</v>
+          </cell>
+          <cell r="C106">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="A107">
+            <v>44144</v>
+          </cell>
+          <cell r="B107">
+            <v>126</v>
+          </cell>
+          <cell r="C107">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="A108">
+            <v>44147</v>
+          </cell>
+          <cell r="B108">
+            <v>149</v>
+          </cell>
+          <cell r="C108">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="A109">
+            <v>44149</v>
+          </cell>
+          <cell r="B109">
+            <v>159</v>
+          </cell>
+          <cell r="C109">
+            <v>10</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3651,19 +6652,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3671,7 +6672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>43922</v>
       </c>
@@ -3679,7 +6680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>43923</v>
       </c>
@@ -3687,7 +6688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>43925</v>
       </c>
@@ -3695,7 +6696,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>43927</v>
       </c>
@@ -3703,7 +6704,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>43928</v>
       </c>
@@ -3711,7 +6712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>43929</v>
       </c>
@@ -3719,7 +6720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>43930</v>
       </c>
@@ -3727,7 +6728,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>43931</v>
       </c>
@@ -3735,7 +6736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>43932</v>
       </c>
@@ -3743,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>43934</v>
       </c>
@@ -3751,7 +6752,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>43935</v>
       </c>
@@ -3759,7 +6760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>43936</v>
       </c>
@@ -3767,7 +6768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>43937</v>
       </c>
@@ -3775,7 +6776,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>43938</v>
       </c>
@@ -3783,7 +6784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>43939</v>
       </c>
@@ -3791,7 +6792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>43940</v>
       </c>
@@ -3799,7 +6800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>43941</v>
       </c>
@@ -3807,7 +6808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>43942</v>
       </c>
@@ -3815,7 +6816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>43943</v>
       </c>
@@ -3823,7 +6824,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>43945</v>
       </c>
@@ -3831,7 +6832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>43946</v>
       </c>
@@ -3839,7 +6840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>43947</v>
       </c>
@@ -3847,7 +6848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>43949</v>
       </c>
@@ -3855,7 +6856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>43950</v>
       </c>
@@ -3863,7 +6864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>43951</v>
       </c>
@@ -3871,7 +6872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>43952</v>
       </c>
@@ -3879,7 +6880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>43953</v>
       </c>
@@ -3887,7 +6888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>43955</v>
       </c>
@@ -3895,7 +6896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>43956</v>
       </c>
@@ -3903,7 +6904,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>43958</v>
       </c>
@@ -3911,7 +6912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>43959</v>
       </c>
@@ -3919,7 +6920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>43960</v>
       </c>
@@ -3927,7 +6928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>43961</v>
       </c>
@@ -3935,7 +6936,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>43962</v>
       </c>
@@ -3943,7 +6944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>43963</v>
       </c>
@@ -3951,7 +6952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>43964</v>
       </c>
@@ -3959,7 +6960,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>43967</v>
       </c>
@@ -3967,7 +6968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>43968</v>
       </c>
@@ -3975,7 +6976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>43969</v>
       </c>
@@ -3983,7 +6984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>43970</v>
       </c>
@@ -3991,7 +6992,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>43971</v>
       </c>
@@ -3999,7 +7000,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>43972</v>
       </c>
@@ -4007,7 +7008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43973</v>
       </c>
@@ -4015,7 +7016,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>43974</v>
       </c>
@@ -4023,7 +7024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>43975</v>
       </c>
@@ -4031,7 +7032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>43977</v>
       </c>
@@ -4039,7 +7040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>43978</v>
       </c>
@@ -4047,7 +7048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>43979</v>
       </c>
@@ -4055,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>43980</v>
       </c>
@@ -4063,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>43981</v>
       </c>
@@ -4071,7 +7072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>43982</v>
       </c>
@@ -4079,7 +7080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>43983</v>
       </c>
@@ -4087,7 +7088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>43984</v>
       </c>
@@ -4095,7 +7096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>43985</v>
       </c>
@@ -4103,7 +7104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>43987</v>
       </c>
@@ -4111,7 +7112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>43988</v>
       </c>
@@ -4119,7 +7120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>44029</v>
       </c>
@@ -4127,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>44030</v>
       </c>
@@ -4135,7 +7136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>44033</v>
       </c>
@@ -4143,7 +7144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>44036</v>
       </c>
@@ -4151,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>44038</v>
       </c>
@@ -4159,7 +7160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>44053</v>
       </c>
@@ -4167,7 +7168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>44055</v>
       </c>
@@ -4175,7 +7176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>44056</v>
       </c>
@@ -4183,7 +7184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>44057</v>
       </c>
@@ -4191,7 +7192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>44058</v>
       </c>
@@ -4199,7 +7200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>44059</v>
       </c>
@@ -4207,7 +7208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>44060</v>
       </c>
@@ -4215,7 +7216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>44061</v>
       </c>
@@ -4223,7 +7224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>44063</v>
       </c>
@@ -4231,7 +7232,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>44064</v>
       </c>
@@ -4239,7 +7240,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>44065</v>
       </c>
@@ -4247,7 +7248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>44066</v>
       </c>
@@ -4255,7 +7256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>44067</v>
       </c>
@@ -4263,7 +7264,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>44068</v>
       </c>
@@ -4271,7 +7272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>44069</v>
       </c>
@@ -4279,7 +7280,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>44070</v>
       </c>
@@ -4287,7 +7288,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>44072</v>
       </c>
@@ -4295,7 +7296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>44074</v>
       </c>
@@ -4303,7 +7304,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>44076</v>
       </c>
@@ -4311,7 +7312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>44079</v>
       </c>
@@ -4319,7 +7320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>44080</v>
       </c>
@@ -4327,7 +7328,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>44082</v>
       </c>
@@ -4335,7 +7336,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>44083</v>
       </c>
@@ -4343,7 +7344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>44084</v>
       </c>
@@ -4351,7 +7352,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>44086</v>
       </c>
@@ -4359,7 +7360,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>44087</v>
       </c>
@@ -4367,7 +7368,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>44088</v>
       </c>
@@ -4375,7 +7376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>44090</v>
       </c>
@@ -4383,7 +7384,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>44094</v>
       </c>
@@ -4391,7 +7392,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>44095</v>
       </c>
@@ -4399,7 +7400,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>44098</v>
       </c>
@@ -4407,7 +7408,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>44100</v>
       </c>
@@ -4415,7 +7416,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>44102</v>
       </c>
@@ -4423,7 +7424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>44103</v>
       </c>
@@ -4431,7 +7432,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>44104</v>
       </c>
@@ -4439,7 +7440,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>44106</v>
       </c>
@@ -4447,7 +7448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>44107</v>
       </c>
@@ -4455,7 +7456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>44109</v>
       </c>
@@ -4463,7 +7464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>44111</v>
       </c>
@@ -4471,7 +7472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>44112</v>
       </c>
@@ -4479,7 +7480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>44114</v>
       </c>
@@ -4487,7 +7488,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>44115</v>
       </c>
@@ -4495,7 +7496,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>44118</v>
       </c>
@@ -4503,7 +7504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>44119</v>
       </c>
@@ -4511,7 +7512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>44122</v>
       </c>
@@ -4519,7 +7520,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>44125</v>
       </c>
@@ -4527,7 +7528,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>44126</v>
       </c>
@@ -4535,7 +7536,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>44128</v>
       </c>
@@ -4543,7 +7544,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>44129</v>
       </c>
@@ -4551,7 +7552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>44130</v>
       </c>
@@ -4559,7 +7560,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>44131</v>
       </c>
@@ -4567,7 +7568,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>44133</v>
       </c>
@@ -4575,7 +7576,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>44135</v>
       </c>
@@ -4583,7 +7584,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>44136</v>
       </c>
@@ -4591,7 +7592,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>44137</v>
       </c>
@@ -4599,7 +7600,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>44138</v>
       </c>
@@ -4607,7 +7608,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>44139</v>
       </c>
@@ -4615,7 +7616,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>44140</v>
       </c>
@@ -4623,7 +7624,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>44141</v>
       </c>
@@ -4631,7 +7632,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>44142</v>
       </c>
@@ -4639,7 +7640,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>44144</v>
       </c>
@@ -4647,7 +7648,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>44147</v>
       </c>
@@ -4666,20 +7667,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="10.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="14" style="4" customWidth="1"/>
-    <col min="4" max="13" width="9.1640625" style="4"/>
+    <col min="4" max="13" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -4702,7 +7703,7 @@
       <c r="L1" s="10"/>
       <c r="M1" s="10"/>
     </row>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11"/>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -4737,7 +7738,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43922</v>
       </c>
@@ -4778,7 +7779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>43923</v>
       </c>
@@ -4819,7 +7820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="8">
         <v>43925</v>
       </c>
@@ -4860,7 +7861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="8">
         <v>43928</v>
       </c>
@@ -4901,7 +7902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="8">
         <v>43929</v>
       </c>
@@ -4942,7 +7943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="8">
         <v>43930</v>
       </c>
@@ -4983,7 +7984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="8">
         <v>43931</v>
       </c>
@@ -5024,7 +8025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="8">
         <v>43934</v>
       </c>
@@ -5065,7 +8066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43935</v>
       </c>
@@ -5106,7 +8107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43936</v>
       </c>
@@ -5147,7 +8148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43937</v>
       </c>
@@ -5188,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43938</v>
       </c>
@@ -5229,7 +8230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="8">
         <v>43939</v>
       </c>
@@ -5270,7 +8271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="8">
         <v>43940</v>
       </c>
@@ -5311,7 +8312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <v>43941</v>
       </c>
@@ -5352,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="8">
         <v>43942</v>
       </c>
@@ -5393,7 +8394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="8">
         <v>43943</v>
       </c>
@@ -5434,7 +8435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="8">
         <v>43945</v>
       </c>
@@ -5475,7 +8476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="8">
         <v>43946</v>
       </c>
@@ -5516,7 +8517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="8">
         <v>43947</v>
       </c>
@@ -5557,7 +8558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="8">
         <v>43949</v>
       </c>
@@ -5598,7 +8599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="8">
         <v>43950</v>
       </c>
@@ -5639,7 +8640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>43951</v>
       </c>
@@ -5680,7 +8681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>43952</v>
       </c>
@@ -5721,7 +8722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>43953</v>
       </c>
@@ -5762,7 +8763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>43955</v>
       </c>
@@ -5803,7 +8804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>43956</v>
       </c>
@@ -5844,7 +8845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>43958</v>
       </c>
@@ -5885,7 +8886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>43959</v>
       </c>
@@ -5926,7 +8927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="8">
         <v>43960</v>
       </c>
@@ -5967,7 +8968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="8">
         <v>43961</v>
       </c>
@@ -6008,7 +9009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>43962</v>
       </c>
@@ -6049,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>43963</v>
       </c>
@@ -6090,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="8">
         <v>43964</v>
       </c>
@@ -6131,7 +9132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>43967</v>
       </c>
@@ -6172,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>43968</v>
       </c>
@@ -6213,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>43969</v>
       </c>
@@ -6254,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>43970</v>
       </c>
@@ -6295,7 +9296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>43971</v>
       </c>
@@ -6336,7 +9337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>43972</v>
       </c>
@@ -6377,7 +9378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>43973</v>
       </c>
@@ -6418,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>43980</v>
       </c>
@@ -6459,7 +9460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>44029</v>
       </c>
@@ -6500,7 +9501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>44053</v>
       </c>
@@ -6541,7 +9542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>44055</v>
       </c>
@@ -6582,7 +9583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="8">
         <v>44056</v>
       </c>
@@ -6623,7 +9624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="8">
         <v>44057</v>
       </c>
@@ -6664,7 +9665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="8">
         <v>44058</v>
       </c>
@@ -6705,7 +9706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="8">
         <v>44059</v>
       </c>
@@ -6746,7 +9747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="8">
         <v>44060</v>
       </c>
@@ -6787,7 +9788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="8">
         <v>44061</v>
       </c>
@@ -6828,7 +9829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="8">
         <v>44063</v>
       </c>
@@ -6869,7 +9870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="8">
         <v>44064</v>
       </c>
@@ -6910,7 +9911,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="8">
         <v>44065</v>
       </c>
@@ -6951,7 +9952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="8">
         <v>44066</v>
       </c>
@@ -6992,7 +9993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="8">
         <v>44067</v>
       </c>
@@ -7033,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="8">
         <v>44068</v>
       </c>
@@ -7074,7 +10075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="8">
         <v>44069</v>
       </c>
@@ -7115,7 +10116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="8">
         <v>44070</v>
       </c>
@@ -7156,7 +10157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="8">
         <v>44072</v>
       </c>
@@ -7197,7 +10198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="8">
         <v>44074</v>
       </c>
@@ -7238,7 +10239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="8">
         <v>44076</v>
       </c>
@@ -7279,7 +10280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="8">
         <v>44077</v>
       </c>
@@ -7320,7 +10321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="8">
         <v>44078</v>
       </c>
@@ -7361,7 +10362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="8">
         <v>44079</v>
       </c>
@@ -7402,7 +10403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="8">
         <v>44080</v>
       </c>
@@ -7443,7 +10444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="8">
         <v>44082</v>
       </c>
@@ -7484,7 +10485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="8">
         <v>44083</v>
       </c>
@@ -7525,7 +10526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="8">
         <v>44084</v>
       </c>
@@ -7566,7 +10567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="8">
         <v>44086</v>
       </c>
@@ -7607,7 +10608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="8">
         <v>44087</v>
       </c>
@@ -7648,7 +10649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="8">
         <v>44088</v>
       </c>
@@ -7689,7 +10690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="8">
         <v>44090</v>
       </c>
@@ -7730,7 +10731,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="8">
         <v>44094</v>
       </c>
@@ -7771,7 +10772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="8">
         <v>44095</v>
       </c>
@@ -7812,7 +10813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="8">
         <v>44098</v>
       </c>
@@ -7853,7 +10854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="8">
         <v>44102</v>
       </c>
@@ -7894,7 +10895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="8">
         <v>44103</v>
       </c>
@@ -7935,7 +10936,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="8">
         <v>44104</v>
       </c>
@@ -7976,7 +10977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="8">
         <v>44106</v>
       </c>
@@ -8017,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="8">
         <v>44107</v>
       </c>
@@ -8058,7 +11059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="8">
         <v>44109</v>
       </c>
@@ -8099,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="8">
         <v>44111</v>
       </c>
@@ -8140,7 +11141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="8">
         <v>44112</v>
       </c>
@@ -8181,7 +11182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="8">
         <v>44114</v>
       </c>
@@ -8222,7 +11223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="8">
         <v>44115</v>
       </c>
@@ -8263,7 +11264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="8">
         <v>44118</v>
       </c>
@@ -8304,7 +11305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="8">
         <v>44119</v>
       </c>
@@ -8345,7 +11346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="8">
         <v>44122</v>
       </c>
@@ -8386,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="8">
         <v>44125</v>
       </c>
@@ -8427,7 +11428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="8">
         <v>44126</v>
       </c>
@@ -8468,7 +11469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="8">
         <v>44128</v>
       </c>
@@ -8509,7 +11510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="8">
         <v>44129</v>
       </c>
@@ -8550,7 +11551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="8">
         <v>44130</v>
       </c>
@@ -8591,7 +11592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="8">
         <v>44131</v>
       </c>
@@ -8632,7 +11633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="8">
         <v>44133</v>
       </c>
@@ -8673,7 +11674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="8">
         <v>44135</v>
       </c>
@@ -8714,7 +11715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="8">
         <v>44136</v>
       </c>
@@ -8755,7 +11756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="8">
         <v>44137</v>
       </c>
@@ -8796,7 +11797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="8">
         <v>44138</v>
       </c>
@@ -8837,7 +11838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="8">
         <v>44139</v>
       </c>
@@ -8878,7 +11879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="8">
         <v>44140</v>
       </c>
@@ -8919,7 +11920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="8">
         <v>44141</v>
       </c>
@@ -8960,7 +11961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="8">
         <v>44142</v>
       </c>
@@ -9001,7 +12002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="8">
         <v>44144</v>
       </c>
@@ -9042,7 +12043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="8">
         <v>44147</v>
       </c>
